--- a/cms/metrics_documentation/migration_data/metrics_definitions_migration_edit.xlsx
+++ b/cms/metrics_documentation/migration_data/metrics_definitions_migration_edit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipstanley/Documents/projects/UKHSA/winter-pressures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipstanley/Documents/projects/UKHSA/winter-pressures/winter-pressures-api/cms/metrics_documentation/migration_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CF675B-32B8-214E-80C4-2C34CA1E14FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F95ED21-E248-3B40-A37D-513BA5B26EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8920" yWindow="660" windowWidth="57900" windowHeight="22600" xr2:uid="{761B9231-95BC-4CC1-BF4F-419CF0B37169}"/>
   </bookViews>
@@ -35,41 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={E0B0A9C2-BC11-4229-A676-C723185A2F28}</author>
-    <author>tc={2DB5A1B5-DA5C-415C-A48C-B194A694C317}</author>
-  </authors>
-  <commentList>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{E0B0A9C2-BC11-4229-A676-C723185A2F28}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For beta we will need to use the spring boosters as the primary vaccination metrics and have a daily time series/cumulative chart plus uptake chart for autumn boosters 2022</t>
-      </text>
-    </comment>
-    <comment ref="B33" authorId="1" shapeId="0" xr:uid="{2DB5A1B5-DA5C-415C-A48C-B194A694C317}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    For beta we will need to use the spring boosters as the primary vaccination metrics and have a daily time series/cumulative chart plus uptake chart for autumn boosters 2022</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="289">
-  <si>
-    <t>Virus</t>
-  </si>
-  <si>
-    <t>Metric Group</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="275">
   <si>
     <t>Metric Name</t>
   </si>
@@ -84,12 +51,6 @@
   </si>
   <si>
     <t>Caveats/Notes</t>
-  </si>
-  <si>
-    <t>COVID-19</t>
-  </si>
-  <si>
-    <t>Cases</t>
   </si>
   <si>
     <t>COVID-19_headline_cases_7DayTotals</t>
@@ -204,9 +165,6 @@
 People who test positive again after a given time period are counted as new cases. In England people are counted as new cases if they test positive again more than 90 days after their last positive test. 
 Data for the last 5 days by specimen date are considered incomplete as it takes time to get test results and record them on relevant lab systems. Cases data for England includes all positive lab-confirmed PCR test results plus, positive rapid lateral flow tests unless followed by a negative PCR test taken within 72 hours.
 The value shown on a given date is the total of the reported new cases in the 7 days up to and including that date divided by the number of individuals in the population, then multiplied by 100,000.</t>
-  </si>
-  <si>
-    <t>Deaths</t>
   </si>
   <si>
     <t>COVID-19_headline_ONSdeaths_7DayTotals</t>
@@ -439,9 +397,6 @@
     </r>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>COVID-19_headline_7DayAdmissions</t>
   </si>
   <si>
@@ -549,9 +504,6 @@
 Admissions figures include people admitted to NHS acute hospitals and mental health and learning disability (MHLD) trusts.</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>COVID-19_headline_tests_7DayTotal</t>
   </si>
   <si>
@@ -635,9 +587,6 @@
 Positivity is calculated as the count of number of PCR tests taken in the 7 days up to and including the date shown which had a positive result, divided by the total number of positive or negative PCR tests taken in the 7 days up to and including the date shown.</t>
   </si>
   <si>
-    <t>Vaccinations</t>
-  </si>
-  <si>
     <t>COVID-19_headline_vaccines_autumn23Total</t>
   </si>
   <si>
@@ -769,9 +718,6 @@
 This metric shows the daily total percentage uptake of autumn booster 2022 vaccinations and is calculated as the total number of autumn booster 2022 vaccinations given to people aged 50 years and over, divided by the number of people who are currently aged 50 years and over.</t>
   </si>
   <si>
-    <t>Influenza</t>
-  </si>
-  <si>
     <t>influenza_headline_ICUHDUadmissionRateLatest</t>
   </si>
   <si>
@@ -847,9 +793,6 @@
 Weekly positivity is calculated as the count of number of PCR tests taken in the last 7 days up to and including the date shown which had a positive result, divided by the total number of positive or negative PCR tests taken in the last 7 days up to and including the date shown.</t>
   </si>
   <si>
-    <t>RSV</t>
-  </si>
-  <si>
     <t>RSV_headline_admissionRateLatest</t>
   </si>
   <si>
@@ -868,9 +811,6 @@
   <si>
     <t>Updates from SARI Watch are published in the UKHSA National Influenza and COVID-19 Surveillance Report on a Friday (weekly during influenza season and fortnightly in the summer months), and contains data up to the previous Sunday.
 This metric shows the rate per 100,000 people in the NHS trust catchment population who were admitted to hospital with laboratory-confirmed RSV in the 7 days up to and including the date shown.  It is calculated by counting the number of RSV-related admissions in the 7 days up to and including the date shown, dividing by the catchment population of the NHS trust and then multiplying by 100,000.</t>
-  </si>
-  <si>
-    <t>Adenovirus</t>
   </si>
   <si>
     <t>adenovirus_headline_positivityLatest</t>
@@ -900,9 +840,6 @@
 Weekly positivity is calculated as the count of number of PCR tests taken in the last 7 days up to and including the date shown which had a positive result, divided by the total number of positive or negative PCR tests taken in the last 7 days up to and including the date shown.</t>
   </si>
   <si>
-    <t>hMPV</t>
-  </si>
-  <si>
     <t>hMPV_headline_positivityLatest</t>
   </si>
   <si>
@@ -930,9 +867,6 @@
 Weekly positivity is calculated as the count of number of PCR tests taken in the last 7 days up to and including the date shown which had a positive result, divided by the total number of positive or negative PCR tests taken in the last 7 days up to and including the date shown.</t>
   </si>
   <si>
-    <t>Parainfluenza</t>
-  </si>
-  <si>
     <t>parainfluenza_headline_positivityLatest</t>
   </si>
   <si>
@@ -958,9 +892,6 @@
     <t>Testing for parainfluenza is performed using polymerase chain reaction (PCR) tests, which require processing in a laboratory
 Updates from SARI Watch are published in the UKHSA National Influenza and COVID-19 Surveillance Report on a Friday (weekly during influenza season and fortnightly in the summer months), and contains data up to the previous Sunday. 
 Weekly positivity is calculated as the count of number of PCR tests taken in the last 7 days up to and including the date shown which had a positive result, divided by the total number of positive or negative PCR tests taken in the last 7 days up to and including the date shown.</t>
-  </si>
-  <si>
-    <t>Rhinovirus</t>
   </si>
   <si>
     <t>rhinovirus_headline_positivityLatest</t>
@@ -1381,7 +1312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1434,17 +1365,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1475,17 +1395,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1529,19 +1438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1572,17 +1468,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1637,14 +1522,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1660,9 +1542,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1678,9 +1557,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1693,39 +1569,36 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1733,31 +1606,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1765,29 +1620,20 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1795,50 +1641,38 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1852,7 +1686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1873,9 +1707,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Christie Hay" id="{10CEE715-943D-4436-8B73-9FF87616437F}" userId="S::Christie.Hay@ukhsa.gov.uk::f42e4c4f-58a9-45cf-a2b8-f35b3c6e397a" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2173,1785 +2005,1266 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B29" dT="2023-06-06T13:14:00.48" personId="{10CEE715-943D-4436-8B73-9FF87616437F}" id="{E0B0A9C2-BC11-4229-A676-C723185A2F28}">
-    <text>For beta we will need to use the spring boosters as the primary vaccination metrics and have a daily time series/cumulative chart plus uptake chart for autumn boosters 2022</text>
-  </threadedComment>
-  <threadedComment ref="B33" dT="2023-06-06T13:14:00.48" personId="{10CEE715-943D-4436-8B73-9FF87616437F}" id="{2DB5A1B5-DA5C-415C-A48C-B194A694C317}">
-    <text>For beta we will need to use the spring boosters as the primary vaccination metrics and have a daily time series/cumulative chart plus uptake chart for autumn boosters 2022</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E3E244-777F-44C7-8F0C-8F9E73605F19}">
-  <dimension ref="A1:J56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E3E244-777F-44C7-8F0C-8F9E73605F19}">
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="40" style="6" customWidth="1"/>
-    <col min="5" max="5" width="50.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="62.6640625" style="71" customWidth="1"/>
-    <col min="7" max="8" width="106.1640625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="91.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="47" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="1" width="40" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" style="54" customWidth="1"/>
+    <col min="4" max="5" width="106.1640625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="91.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="296" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="255.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="322.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="257.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="304" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="288" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="237.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="254.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="274.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="202.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="244.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="244.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="138.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="201" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="208.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="296" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="F24" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A29" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A31" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A32" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="255.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="322.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="257.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="304" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="304" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="237.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="B32" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="254.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="F32" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A33" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A35" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="274.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="16" t="s">
+      <c r="F35" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A36" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="202.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="F36" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="244.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="F37" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="F38" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A43" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="44"/>
+    </row>
+    <row r="44" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A44" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" ht="244.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="138.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="1:10" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" ht="208.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="192" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="192" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="44"/>
-    </row>
-    <row r="21" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="46"/>
-    </row>
-    <row r="23" spans="1:10" ht="128" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="53" t="s">
+      <c r="D45" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A47" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="I23" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="128" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="72" t="s">
+      <c r="F47" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="53"/>
+    </row>
+    <row r="48" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A48" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="I24" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="58" t="s">
+      <c r="F48" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="53"/>
+    </row>
+    <row r="49" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A49" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="59" t="s">
+      <c r="F49" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A50" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="I26" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26" s="57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="112" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="53" t="s">
+      <c r="F50" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A51" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="I27" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="51" t="s">
+      <c r="F51" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="53"/>
+    </row>
+    <row r="52" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A52" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A53" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="I28" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="A29" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="63" t="s">
+      <c r="B53" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="53"/>
+    </row>
+    <row r="54" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A54" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="E29" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" s="65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="192" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I30" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="I31" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="192" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="65" t="s">
+      <c r="B54" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="I32" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" s="65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="I33" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="J33" s="65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="192" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="J34" s="65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="65" t="s">
+      <c r="F54" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" s="53"/>
+    </row>
+    <row r="55" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A55" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="I35" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="J35" s="65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="192" x14ac:dyDescent="0.2">
-      <c r="A36" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>240</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="65" t="s">
+      <c r="F55" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="53"/>
+    </row>
+    <row r="56" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A56" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="I36" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="J36" s="65" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="I37" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="J37" s="65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="192" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="I38" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J38" s="65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="I41" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="J42" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H43" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="I43" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="J43" s="57"/>
-    </row>
-    <row r="44" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="H44" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="I44" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="J44" s="57"/>
-    </row>
-    <row r="45" spans="1:10" ht="112" x14ac:dyDescent="0.2">
-      <c r="A45" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="H45" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="I45" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="J45" s="46"/>
-    </row>
-    <row r="46" spans="1:10" ht="128" x14ac:dyDescent="0.2">
-      <c r="A46" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="I46" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="J46" s="46"/>
-    </row>
-    <row r="47" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A47" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="E47" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="G47" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="I47" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="J47" s="70"/>
-    </row>
-    <row r="48" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A48" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="E48" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="G48" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="H48" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="I48" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="J48" s="70"/>
-    </row>
-    <row r="49" spans="1:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="A49" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="E49" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="F49" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="H49" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="I49" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="J49" s="70"/>
-    </row>
-    <row r="50" spans="1:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="A50" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="E50" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="G50" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="H50" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="I50" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="J50" s="70"/>
-    </row>
-    <row r="51" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A51" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="D51" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="E51" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="F51" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="H51" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="I51" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="J51" s="70"/>
-    </row>
-    <row r="52" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A52" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="E52" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="G52" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="H52" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="I52" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="J52" s="70"/>
-    </row>
-    <row r="53" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A53" s="67" t="s">
+      <c r="F56" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="B53" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="E53" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="H53" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="I53" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="J53" s="70"/>
-    </row>
-    <row r="54" spans="1:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="A54" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="E54" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="H54" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="I54" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="J54" s="70"/>
-    </row>
-    <row r="55" spans="1:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="A55" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="E55" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="F55" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="G55" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="I55" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="J55" s="70"/>
-    </row>
-    <row r="56" spans="1:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="A56" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D56" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="E56" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="G56" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="H56" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="I56" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="J56" s="70"/>
+      <c r="G56" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
